--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>944272.3225151328</v>
+        <v>969606.7465203356</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564201</v>
+        <v>189902.9539564204</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728817</v>
+        <v>9102620.618728815</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8730793.489920922</v>
+        <v>8730793.489920923</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>368.0745826192874</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>281.5866765533277</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -786,7 +786,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>17.13267830032996</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>99.3450804962429</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>218.3734398702018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>165.5247385513057</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>9.275596830496628</v>
+        <v>78.13981344678598</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -1105,7 +1105,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>131.5366686688007</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>97.79015300852296</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,13 +1306,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>14.46389722690827</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.39108932486009</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>255.0589391834377</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>184.5808806410308</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1749,7 +1749,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1807,19 +1807,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>169.0167291702123</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903397</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>200.9124899777286</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,10 +1859,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>45.2214606498635</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1980,7 +1980,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494241</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>129.0246247964032</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>376.1848636439235</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>121.9722865630709</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,22 +2126,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>62.27914576410196</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>290.5286403308936</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>43.826421141725</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>155.2114886365808</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>63.37099713517543</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>108.9695455780593</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>208.9978294690247</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.60620160013897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,16 +2792,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,19 +2837,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>131.5077074825213</v>
+        <v>312.7927084532563</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>52.10844059186244</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,16 +3032,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>323.9918595228954</v>
+        <v>376.1848636439231</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>162.3364906735231</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,16 +3199,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,10 +3229,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>134.6751203255734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,10 +3266,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>284.5615160058687</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>13.18828000522858</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,22 +3311,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>213.9154470216035</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>205.3743261851591</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>63.24394419057875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>184.5808806410304</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>23.59568114728111</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>155.2114886365804</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>64.88562790386291</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3904,10 +3904,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>149.8794763036715</v>
       </c>
       <c r="T43" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>80.36913259236705</v>
       </c>
       <c r="C44" t="n">
-        <v>4.55385834063818</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,22 +4022,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="D46" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1208.982837814967</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C2" t="n">
-        <v>1208.982837814967</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>850.7171392082162</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>1596.687254739904</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.914677487028</v>
+        <v>1596.687254739904</v>
       </c>
       <c r="Y2" t="n">
-        <v>1580.775345511217</v>
+        <v>1596.687254739904</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,7 +4404,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4425,25 +4425,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>579.9823256406182</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C4" t="n">
-        <v>579.9823256406182</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D4" t="n">
-        <v>579.9823256406182</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E4" t="n">
-        <v>579.9823256406182</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
         <v>235.9284171545819</v>
@@ -4486,7 +4486,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>336.276983312403</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406182</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406182</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2476.569858826099</v>
+        <v>1362.448813819877</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1362.448813819877</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2080.111541227569</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1749.048653883999</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1749.048653883999</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1749.048653883999</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018222</v>
+        <v>1749.048653883999</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4665,22 +4665,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.9687959810045</v>
+        <v>336.276983312403</v>
       </c>
       <c r="C7" t="n">
-        <v>108.9687959810045</v>
+        <v>336.276983312403</v>
       </c>
       <c r="D7" t="n">
-        <v>108.9687959810045</v>
+        <v>336.276983312403</v>
       </c>
       <c r="E7" t="n">
-        <v>108.9687959810045</v>
+        <v>336.276983312403</v>
       </c>
       <c r="F7" t="n">
-        <v>108.9687959810045</v>
+        <v>336.276983312403</v>
       </c>
       <c r="G7" t="n">
-        <v>108.9687959810045</v>
+        <v>336.276983312403</v>
       </c>
       <c r="H7" t="n">
-        <v>108.9687959810045</v>
+        <v>178.5286107449331</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>336.276983312403</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>336.276983312403</v>
       </c>
       <c r="U7" t="n">
-        <v>108.9687959810045</v>
+        <v>336.276983312403</v>
       </c>
       <c r="V7" t="n">
-        <v>108.9687959810045</v>
+        <v>336.276983312403</v>
       </c>
       <c r="W7" t="n">
-        <v>108.9687959810045</v>
+        <v>336.276983312403</v>
       </c>
       <c r="X7" t="n">
-        <v>108.9687959810045</v>
+        <v>336.276983312403</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.9687959810045</v>
+        <v>336.276983312403</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1732.515907621104</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2509.255079661038</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2509.255079661038</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2509.255079661038</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2509.255079661038</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2509.255079661038</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X8" t="n">
-        <v>2509.255079661038</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="Y8" t="n">
-        <v>2119.115747685226</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4905,25 +4905,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>534.603677789272</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C11" t="n">
-        <v>534.603677789272</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5042,10 +5042,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859356</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X11" t="n">
-        <v>936.2491605982757</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y11" t="n">
-        <v>546.109828622464</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1679.782215419422</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C14" t="n">
-        <v>1679.782215419422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D14" t="n">
-        <v>1679.782215419422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E14" t="n">
-        <v>1293.993962821178</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>883.0080580315705</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>465.0442499297574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5279,16 +5279,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5306,22 +5306,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2510.703757037383</v>
       </c>
       <c r="U14" t="n">
-        <v>2443.387305656314</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V14" t="n">
-        <v>2443.387305656314</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W14" t="n">
-        <v>2443.387305656314</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X14" t="n">
-        <v>2069.921547395234</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y14" t="n">
-        <v>1679.782215419422</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="15">
@@ -5355,43 +5355,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5440,31 +5440,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124031</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810048</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U16" t="n">
         <v>53.94298182036445</v>
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2310.5492509541</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C17" t="n">
-        <v>2107.607341885688</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
@@ -5531,34 +5531,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2397.709062575643</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2397.709062575643</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y17" t="n">
-        <v>2697.149091018222</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5589,46 +5589,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>670.82192085987</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430046</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U18" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K19" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U19" t="n">
-        <v>598.0446400632119</v>
+        <v>438.955373861002</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>184.2708856551152</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551152</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551152</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551152</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>546.109828622464</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>177.1473116820522</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D20" t="n">
-        <v>177.1473116820522</v>
+        <v>819.7159451700466</v>
       </c>
       <c r="E20" t="n">
-        <v>177.1473116820522</v>
+        <v>433.9276925718023</v>
       </c>
       <c r="F20" t="n">
-        <v>177.1473116820522</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G20" t="n">
-        <v>177.1473116820522</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>177.1473116820522</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036444</v>
@@ -5753,10 +5753,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5774,28 +5774,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>936.2491605982757</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y20" t="n">
-        <v>546.109828622464</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641996</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
         <v>2646.935720430048</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632152</v>
+        <v>285.8510101265795</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632152</v>
+        <v>285.8510101265795</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632152</v>
+        <v>285.8510101265795</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632152</v>
+        <v>285.8510101265795</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632152</v>
+        <v>285.8510101265795</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632152</v>
+        <v>116.8512098649119</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="T22" t="n">
-        <v>2469.840903686824</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="U22" t="n">
-        <v>2469.840903686824</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="V22" t="n">
-        <v>2215.156415480937</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.963088632152</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632152</v>
+        <v>285.8510101265795</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632152</v>
+        <v>285.8510101265795</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1920.409918978288</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C23" t="n">
-        <v>1920.409918978288</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D23" t="n">
-        <v>1562.144220371538</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E23" t="n">
-        <v>1176.355967773294</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F23" t="n">
-        <v>765.3700629836862</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G23" t="n">
-        <v>347.4062548818731</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036444</v>
@@ -5990,10 +5990,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6017,22 +6017,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2652.879978753853</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2652.879978753853</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2321.817091410283</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1969.048436140168</v>
       </c>
       <c r="X23" t="n">
-        <v>2697.149091018222</v>
+        <v>1595.582677879088</v>
       </c>
       <c r="Y23" t="n">
-        <v>2307.00975904241</v>
+        <v>1595.582677879088</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>53.94298182036444</v>
       </c>
       <c r="K24" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641996</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6175,19 +6175,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>2469.840903686824</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>2180.667293341392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>2022.963088632152</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W25" t="n">
-        <v>2022.963088632152</v>
+        <v>2407.731920981261</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632152</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y25" t="n">
         <v>2022.963088632152</v>
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.9054987607761</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="C26" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="D26" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224073</v>
@@ -6248,28 +6248,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2633.137982800873</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2302.075095457302</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>1949.306440187188</v>
       </c>
       <c r="X26" t="n">
-        <v>1199.64467080071</v>
+        <v>1575.840681926108</v>
       </c>
       <c r="Y26" t="n">
-        <v>809.505338824898</v>
+        <v>1185.701349950296</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417902</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L28" t="n">
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S28" t="n">
-        <v>579.9823256406182</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="T28" t="n">
-        <v>352.67413830922</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="U28" t="n">
-        <v>352.67413830922</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="V28" t="n">
-        <v>97.9896501033331</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="W28" t="n">
-        <v>97.9896501033331</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="X28" t="n">
-        <v>97.9896501033331</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>576.3714747656866</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="C29" t="n">
-        <v>207.4089578252748</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D29" t="n">
-        <v>207.4089578252748</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E29" t="n">
-        <v>207.4089578252748</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224073</v>
@@ -6485,28 +6485,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U29" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V29" t="n">
-        <v>2079.345060336814</v>
+        <v>2326.16817078785</v>
       </c>
       <c r="W29" t="n">
-        <v>1726.5764050667</v>
+        <v>1973.399515517736</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.11064680562</v>
+        <v>1599.933757256656</v>
       </c>
       <c r="Y29" t="n">
-        <v>962.9713148298083</v>
+        <v>1209.794425280844</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>2644.514302541593</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>2644.514302541593</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>2644.514302541593</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>2496.6012089592</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>2349.71126146129</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>2180.711461199622</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>2644.514302541593</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>2644.514302541593</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005474</v>
+        <v>2644.514302541593</v>
       </c>
       <c r="W31" t="n">
-        <v>184.0273259635867</v>
+        <v>2644.514302541593</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>2644.514302541593</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>2644.514302541593</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717209</v>
+        <v>1546.944160717208</v>
       </c>
       <c r="C32" t="n">
         <v>1177.981643776797</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.981643776797</v>
+        <v>819.7159451700461</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1933911785532</v>
+        <v>433.9276925718019</v>
       </c>
       <c r="F32" t="n">
-        <v>381.2074863889456</v>
+        <v>433.9276925718019</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
@@ -6716,34 +6716,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2531.696696795508</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="C34" t="n">
-        <v>2531.696696795508</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D34" t="n">
-        <v>2531.696696795508</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E34" t="n">
-        <v>2531.696696795508</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F34" t="n">
-        <v>2531.696696795508</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G34" t="n">
-        <v>2362.69689653384</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I34" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q34" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R34" t="n">
-        <v>2531.696696795508</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S34" t="n">
-        <v>2531.696696795508</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T34" t="n">
-        <v>2531.696696795508</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U34" t="n">
-        <v>2531.696696795508</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V34" t="n">
-        <v>2531.696696795508</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W34" t="n">
-        <v>2531.696696795508</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="X34" t="n">
-        <v>2531.696696795508</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="Y34" t="n">
-        <v>2531.696696795508</v>
+        <v>217.9192350259434</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>864.0386341629926</v>
+        <v>1865.381229508781</v>
       </c>
       <c r="C35" t="n">
-        <v>864.0386341629926</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D35" t="n">
-        <v>864.0386341629926</v>
+        <v>1138.153013961619</v>
       </c>
       <c r="E35" t="n">
-        <v>478.2503815647484</v>
+        <v>752.3647613633748</v>
       </c>
       <c r="F35" t="n">
-        <v>67.26447677514079</v>
+        <v>341.3788565737672</v>
       </c>
       <c r="G35" t="n">
-        <v>67.26447677514079</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H35" t="n">
-        <v>67.26447677514079</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533131</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733115</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224064</v>
       </c>
       <c r="M35" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O35" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V35" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W35" t="n">
-        <v>1640.777806202926</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X35" t="n">
-        <v>1640.777806202926</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="Y35" t="n">
-        <v>1250.638474227114</v>
+        <v>2251.981069572903</v>
       </c>
     </row>
     <row r="36">
@@ -7005,13 +7005,13 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7026,10 +7026,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
         <v>2525.076107152626</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482713</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7114,31 +7114,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>550.5654064942401</v>
+        <v>512.0527750937034</v>
       </c>
       <c r="U37" t="n">
-        <v>261.391796148808</v>
+        <v>222.8791647482713</v>
       </c>
       <c r="V37" t="n">
-        <v>261.391796148808</v>
+        <v>222.8791647482713</v>
       </c>
       <c r="W37" t="n">
-        <v>261.391796148808</v>
+        <v>222.8791647482713</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482713</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482713</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1315.737983561872</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C38" t="n">
-        <v>946.7754666214607</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D38" t="n">
-        <v>946.7754666214607</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
@@ -7190,34 +7190,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T38" t="n">
-        <v>2465.942913862886</v>
+        <v>2510.703757037383</v>
       </c>
       <c r="U38" t="n">
-        <v>2465.942913862886</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V38" t="n">
-        <v>2465.942913862886</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W38" t="n">
-        <v>2465.942913862886</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X38" t="n">
-        <v>2092.477155601806</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y38" t="n">
-        <v>1702.337823625994</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="39">
@@ -7242,34 +7242,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>200.8329293182748</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="C40" t="n">
-        <v>200.8329293182748</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="D40" t="n">
-        <v>200.8329293182748</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977608</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662037</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171277</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R40" t="n">
-        <v>704.2949628455442</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S40" t="n">
-        <v>490.0065396637069</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T40" t="n">
-        <v>490.0065396637069</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U40" t="n">
-        <v>200.8329293182748</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V40" t="n">
-        <v>200.8329293182748</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="W40" t="n">
-        <v>200.8329293182748</v>
+        <v>2407.731920981261</v>
       </c>
       <c r="X40" t="n">
-        <v>200.8329293182748</v>
+        <v>2179.742370083243</v>
       </c>
       <c r="Y40" t="n">
-        <v>200.8329293182748</v>
+        <v>2022.963088632152</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1327.372931623164</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C41" t="n">
-        <v>958.4104146827526</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D41" t="n">
-        <v>600.1447160760022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E41" t="n">
-        <v>600.1447160760022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>600.1447160760022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7436,25 +7436,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2048.575150942547</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V41" t="n">
-        <v>1717.512263598976</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W41" t="n">
-        <v>1717.512263598976</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X41" t="n">
-        <v>1717.512263598976</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y41" t="n">
-        <v>1327.372931623164</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="42">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
         <v>53.94298182036445</v>
@@ -7594,25 +7594,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>576.7355737986852</v>
       </c>
       <c r="T43" t="n">
-        <v>597.8010803716834</v>
+        <v>576.7355737986852</v>
       </c>
       <c r="U43" t="n">
-        <v>308.6274700262513</v>
+        <v>576.7355737986852</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036445</v>
+        <v>576.7355737986852</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>576.7355737986852</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1273.280804219765</v>
+        <v>464.928886609972</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>464.928886609972</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7646,13 +7646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7673,25 +7673,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W44" t="n">
-        <v>2423.485734520778</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X44" t="n">
-        <v>2050.019976259699</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y44" t="n">
-        <v>1659.880644283887</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7746,22 +7746,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>325.6879402326643</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C46" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
         <v>53.94298182036445</v>
@@ -7846,10 +7846,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y46" t="n">
-        <v>507.3364050629041</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747172</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627878</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142018</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719087</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627892</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627892</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720727</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10674,13 +10674,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10838,10 +10838,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714818</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451761</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.65925904419316</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>67.65429216408535</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22714,13 +22714,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>128.2883697226013</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22747,16 +22747,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>125.6900249618414</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>164.3604017932788</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22796,10 +22796,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22829,19 +22829,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>85.69942895698361</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22957,10 +22957,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>125.6900249618416</v>
+        <v>56.82580834555225</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22993,7 +22993,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -23021,13 +23021,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23036,10 +23036,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23066,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>42.87904414017078</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>271.9409476699461</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23182,10 +23182,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890124</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23194,10 +23194,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>120.50172456543</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>371.3427523386205</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23273,10 +23273,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>170.102160979652</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23434,10 +23434,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>68.86383358091942</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,22 +23540,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>31.86743971662696</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23671,10 +23671,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23695,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>56.018376287872</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229438</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23732,10 +23732,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>164.3604017932789</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23786,16 +23786,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>282.5307978202714</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>50.80735538553407</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23911,7 +23911,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23944,13 +23944,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,19 +23966,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>30.69118209778793</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -23987,7 +23987,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>29.95902968179033</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,22 +24014,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24139,16 +24139,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>93.89174307769318</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,28 +24169,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>96.25160475629423</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24218,10 +24218,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>33.39413243346354</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>172.6218992159328</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24385,7 +24385,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24415,22 +24415,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>96.01048066168087</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551401</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,10 +24455,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,16 +24488,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>187.8531703731139</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>260.7615551004097</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24613,16 +24613,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,22 +24643,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>3.147709480994223</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.9784517519558</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,16 +24680,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -24698,7 +24698,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,16 +24728,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>196.2445509876136</v>
+        <v>14.95955001687861</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24844,22 +24844,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24889,19 +24889,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>172.9266648662218</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24920,16 +24920,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>89.79231049789962</v>
+        <v>37.59930637687194</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>17.49548950841415</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,16 +25087,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,10 +25117,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R34" t="n">
-        <v>11.99007165458448</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25135,13 +25135,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,10 +25154,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,13 +25166,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>129.2226540149263</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>138.7430362396327</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,19 +25202,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25330,10 +25330,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,16 +25354,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>11.11965843648079</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>20.33532920387805</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25397,13 +25397,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>318.686425881683</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,22 +25436,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>31.86743971662742</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25567,10 +25567,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,31 +25591,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>123.0695108328767</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551443</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>348.898542116932</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,25 +25673,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>170.102160979652</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25804,10 +25804,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,28 +25828,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>62.26606264634739</v>
       </c>
       <c r="T43" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>302.3647090711135</v>
       </c>
       <c r="C44" t="n">
-        <v>360.7190334303694</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25913,19 +25913,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D46" t="n">
-        <v>46.83478528866331</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,10 +26041,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107855</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="D2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="E2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="F2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="G2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="H2" t="n">
         <v>274694.9795149697</v>
@@ -26335,25 +26335,25 @@
         <v>274694.9795149698</v>
       </c>
       <c r="J2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="K2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="L2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="M2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="N2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="O2" t="n">
         <v>274694.9795149698</v>
       </c>
-      <c r="N2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="O2" t="n">
-        <v>274694.9795149699</v>
-      </c>
       <c r="P2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149696</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21256.93885078152</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>21256.93885078152</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>21256.93885078152</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>21256.93885078152</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>21256.93885078152</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>21256.93885078152</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>21256.93885078152</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>21256.93885078152</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>21256.93885078152</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>21256.93885078151</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26482,7 +26482,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340945</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26497,13 +26497,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340945</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340945</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340945</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-419388.9166137658</v>
+        <v>-416360.9053326474</v>
       </c>
       <c r="C6" t="n">
-        <v>170578.9626007788</v>
+        <v>173606.9738818971</v>
       </c>
       <c r="D6" t="n">
-        <v>170578.9626007788</v>
+        <v>173606.973881897</v>
       </c>
       <c r="E6" t="n">
-        <v>204206.5626007787</v>
+        <v>207234.573881897</v>
       </c>
       <c r="F6" t="n">
-        <v>204206.5626007788</v>
+        <v>207234.5738818971</v>
       </c>
       <c r="G6" t="n">
-        <v>204206.5626007786</v>
+        <v>207234.5738818972</v>
       </c>
       <c r="H6" t="n">
-        <v>204206.5626007787</v>
+        <v>207234.573881897</v>
       </c>
       <c r="I6" t="n">
-        <v>204206.5626007788</v>
+        <v>207234.5738818971</v>
       </c>
       <c r="J6" t="n">
-        <v>27783.34340818578</v>
+        <v>30811.35468930411</v>
       </c>
       <c r="K6" t="n">
-        <v>204206.5626007788</v>
+        <v>207234.5738818971</v>
       </c>
       <c r="L6" t="n">
-        <v>204206.5626007787</v>
+        <v>207234.573881897</v>
       </c>
       <c r="M6" t="n">
-        <v>204206.5626007788</v>
+        <v>207234.573881897</v>
       </c>
       <c r="N6" t="n">
-        <v>204206.5626007788</v>
+        <v>207234.5738818969</v>
       </c>
       <c r="O6" t="n">
-        <v>204206.5626007789</v>
+        <v>207234.5738818971</v>
       </c>
       <c r="P6" t="n">
-        <v>204206.5626007788</v>
+        <v>207234.5738818969</v>
       </c>
     </row>
   </sheetData>
@@ -26741,31 +26741,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="M3" t="n">
         <v>377.7436642170866</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26802,7 +26802,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545555</v>
@@ -26811,19 +26811,19 @@
         <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,13 +31750,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31774,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31862,16 +31862,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31932,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31947,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,40 +32230,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O17" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479577</v>
@@ -32336,16 +32336,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L19" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M19" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N19" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,40 +32467,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O20" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N21" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479577</v>
@@ -32573,16 +32573,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L22" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M22" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N22" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S22" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,40 +32704,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J23" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N23" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O23" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q23" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L24" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M24" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N24" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P24" t="n">
         <v>155.1528646479577</v>
@@ -32810,16 +32810,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L25" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M25" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N25" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S25" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,40 +32941,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J26" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N26" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O26" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q26" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L27" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M27" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N27" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O27" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P27" t="n">
         <v>155.1528646479577</v>
@@ -33047,16 +33047,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L28" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M28" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N28" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S28" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,40 +33178,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J29" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N29" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O29" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q29" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K30" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L30" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M30" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N30" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O30" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P30" t="n">
         <v>155.1528646479577</v>
@@ -33284,16 +33284,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L31" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M31" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N31" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S31" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,40 +33415,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J32" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O32" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N33" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P33" t="n">
         <v>155.1528646479577</v>
@@ -33521,16 +33521,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L34" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M34" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N34" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S34" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,13 +33646,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33670,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33758,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33828,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33843,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33907,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33995,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34065,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34080,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34144,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34232,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34302,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34317,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34381,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34469,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34539,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34554,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35422,10 +35422,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35495,19 +35495,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O16" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,16 +35884,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530451</v>
@@ -35902,7 +35902,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307143</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338902</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N19" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O19" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,16 +36121,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530451</v>
@@ -36139,7 +36139,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047529</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245897</v>
@@ -36218,7 +36218,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N22" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O22" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36358,16 +36358,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530451</v>
@@ -36376,7 +36376,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624598</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730635</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M25" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N25" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O25" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530451</v>
@@ -36613,7 +36613,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307157</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
@@ -36692,7 +36692,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M28" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N28" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O28" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530451</v>
@@ -36850,7 +36850,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245897</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,22 +36990,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M31" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N31" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O31" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M32" t="n">
         <v>485.8144648060963</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530451</v>
@@ -37087,7 +37087,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307157</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535667</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,22 +37227,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M34" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N34" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O34" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181299</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
         <v>421.5361394435301</v>
@@ -37318,10 +37318,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,13 +37394,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37555,13 +37555,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116789</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37634,13 +37634,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37716,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37789,13 +37789,13 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37871,7 +37871,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38029,10 +38029,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,10 +38105,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>969606.7465203356</v>
+        <v>998451.0572750631</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728815</v>
+        <v>9102620.618728807</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>240.9592984209434</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>281.5866765533277</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>99.34508049624304</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>99.3450804962429</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>11.39108932486009</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +952,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>165.5247385513057</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +992,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>99.34508049624304</v>
       </c>
       <c r="I7" t="n">
-        <v>78.13981344678598</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>106.0262579901314</v>
       </c>
       <c r="X8" t="n">
-        <v>97.79015300852296</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>63.57678144609376</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,13 +1308,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>14.46389722690827</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>127.9394108880948</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>81.12200652863734</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1466,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
         <v>61.42221998250818</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.57678144609376</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1570,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>11.39108932486009</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1622,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>184.5808806410308</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1749,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1807,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>33.20988753395294</v>
       </c>
       <c r="T16" t="n">
-        <v>169.0167291702123</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>251.3617441382133</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>45.2214606498635</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I18" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1980,7 +1982,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>129.0246247964032</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,10 +2061,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>376.1848636439235</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.3389484681861</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>62.27914576410196</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>43.826421141725</v>
+        <v>62.20749561834783</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>290.5286403308944</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>63.37099713517543</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>126.0887386816666</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2755,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>208.9978294690247</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>194.002977639123</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>312.7927084532563</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2956,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>52.10844059186244</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3032,22 +3034,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>376.1848636439231</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>168.6816137320436</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>162.3364906735231</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>94.63926978364043</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>284.5615160058687</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>20.78397916866327</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3424,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>81.25819606329408</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>213.9154470216035</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>184.5808806410304</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>81.12200652863734</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>167.277433858649</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>94.63926978364043</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>149.8794763036715</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.36913259236705</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>166.2835546331536</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,10 +4033,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>29.16584928708759</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1210.087414675782</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500978</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157407</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1596.687254739904</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1596.687254739904</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1596.687254739904</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4406,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545819</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545819</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>336.276983312403</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>235.9284171545819</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U4" t="n">
-        <v>235.9284171545819</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V4" t="n">
-        <v>235.9284171545819</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W4" t="n">
-        <v>235.9284171545819</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9284171545819</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.9284171545819</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1362.448813819877</v>
+        <v>534.603677789272</v>
       </c>
       <c r="C5" t="n">
-        <v>1362.448813819877</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D5" t="n">
-        <v>1004.183115213127</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E5" t="n">
-        <v>618.3948626148824</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4571,7 +4573,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2080.111541227569</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1749.048653883999</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1749.048653883999</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1749.048653883999</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.048653883999</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,37 +4652,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>336.276983312403</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="C7" t="n">
-        <v>336.276983312403</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="D7" t="n">
-        <v>336.276983312403</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="E7" t="n">
-        <v>336.276983312403</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="F7" t="n">
-        <v>336.276983312403</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="G7" t="n">
-        <v>336.276983312403</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="H7" t="n">
-        <v>178.5286107449331</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>336.276983312403</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>336.276983312403</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U7" t="n">
-        <v>336.276983312403</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V7" t="n">
-        <v>336.276983312403</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W7" t="n">
-        <v>336.276983312403</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X7" t="n">
-        <v>336.276983312403</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y7" t="n">
-        <v>336.276983312403</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.94664591678</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
         <v>1268.68094731003</v>
@@ -4802,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312743</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.546485980902</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="Y8" t="n">
-        <v>2013.546485980902</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,46 +4886,46 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940985</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117053</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F10" t="n">
-        <v>283.209303713795</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521274</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2095034521274</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>781.1711973675267</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="C11" t="n">
-        <v>412.2086804271149</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036445</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>183.1747099901572</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5051,7 +5053,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5066,25 +5068,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U11" t="n">
-        <v>2615.207670282225</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V11" t="n">
-        <v>2284.144782938654</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W11" t="n">
-        <v>1931.37612766854</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X11" t="n">
-        <v>1557.91036940746</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y11" t="n">
-        <v>1167.771037431648</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="12">
@@ -5100,16 +5102,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5142,7 +5144,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
         <v>2488.762748073963</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.9054987607761</v>
+        <v>534.603677789272</v>
       </c>
       <c r="C14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2510.703757037383</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2256.941971675474</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>1925.879084331904</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>1573.11042906179</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X14" t="n">
-        <v>1199.64467080071</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y14" t="n">
-        <v>809.505338824898</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="15">
@@ -5358,40 +5360,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245968</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="T16" t="n">
-        <v>343.1165921657965</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1637.643464250441</v>
+        <v>1954.241103772296</v>
       </c>
       <c r="C17" t="n">
-        <v>1268.680947310029</v>
+        <v>1585.278586831885</v>
       </c>
       <c r="D17" t="n">
-        <v>1268.680947310029</v>
+        <v>1585.278586831885</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117851</v>
+        <v>1199.49033423364</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>788.5044294440329</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036443</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036443</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2443.387305656313</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2397.709062575643</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2397.709062575643</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X17" t="n">
-        <v>2024.243304314563</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2024.243304314563</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="18">
@@ -5568,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036443</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.82192085987</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430046</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064341</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064341</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U19" t="n">
-        <v>438.955373861002</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V19" t="n">
-        <v>184.2708856551152</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W19" t="n">
-        <v>184.2708856551152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>184.2708856551152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>184.2708856551152</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.944160717209</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.981643776797</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="D20" t="n">
-        <v>819.7159451700466</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="E20" t="n">
-        <v>433.9276925718023</v>
+        <v>1198.526584824662</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036444</v>
+        <v>787.5406800350547</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5789,13 +5791,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757142</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.54400078133</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5828,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641996</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598714</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
         <v>2525.076107152626</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>285.8510101265795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>285.8510101265795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>285.8510101265795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>285.8510101265795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>285.8510101265795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>116.8512098649119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>513.8405610245968</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>513.8405610245968</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>513.8405610245968</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>513.8405610245968</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W22" t="n">
-        <v>513.8405610245968</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X22" t="n">
-        <v>285.8510101265795</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y22" t="n">
-        <v>285.8510101265795</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1208.982837814967</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C23" t="n">
-        <v>1208.982837814967</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2652.879978753853</v>
+        <v>2634.313236858276</v>
       </c>
       <c r="U23" t="n">
-        <v>2652.879978753853</v>
+        <v>2380.551451496367</v>
       </c>
       <c r="V23" t="n">
-        <v>2321.817091410283</v>
+        <v>2380.551451496367</v>
       </c>
       <c r="W23" t="n">
-        <v>1969.048436140168</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="X23" t="n">
-        <v>1595.582677879088</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="Y23" t="n">
-        <v>1595.582677879088</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="24">
@@ -6063,19 +6065,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641996</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598714</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W25" t="n">
-        <v>2407.731920981261</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X25" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>799.1015098861747</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C26" t="n">
-        <v>799.1015098861747</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="D26" t="n">
-        <v>799.1015098861747</v>
+        <v>1562.144220371539</v>
       </c>
       <c r="E26" t="n">
-        <v>799.1015098861747</v>
+        <v>1176.355967773295</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861747</v>
+        <v>765.3700629836871</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>347.406254881874</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2633.137982800873</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V26" t="n">
-        <v>2302.075095457302</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W26" t="n">
-        <v>1949.306440187188</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X26" t="n">
-        <v>1575.840681926108</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y26" t="n">
-        <v>1185.701349950296</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6302,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598714</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>517.0200655508536</v>
+        <v>2150.325450936867</v>
       </c>
       <c r="C28" t="n">
-        <v>517.0200655508536</v>
+        <v>2150.325450936867</v>
       </c>
       <c r="D28" t="n">
-        <v>517.0200655508536</v>
+        <v>2150.325450936867</v>
       </c>
       <c r="E28" t="n">
-        <v>517.0200655508536</v>
+        <v>2150.325450936867</v>
       </c>
       <c r="F28" t="n">
-        <v>517.0200655508536</v>
+        <v>2150.325450936867</v>
       </c>
       <c r="G28" t="n">
-        <v>348.0202652891861</v>
+        <v>2150.325450936867</v>
       </c>
       <c r="H28" t="n">
-        <v>190.2718927217162</v>
+        <v>2150.325450936867</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866325</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658208</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502498</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O28" t="n">
-        <v>649.26178935949</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064341</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064341</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064341</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="S28" t="n">
-        <v>517.0200655508536</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="T28" t="n">
-        <v>517.0200655508536</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="U28" t="n">
-        <v>517.0200655508536</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="V28" t="n">
-        <v>517.0200655508536</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="W28" t="n">
-        <v>517.0200655508536</v>
+        <v>2378.315001834884</v>
       </c>
       <c r="X28" t="n">
-        <v>517.0200655508536</v>
+        <v>2150.325450936867</v>
       </c>
       <c r="Y28" t="n">
-        <v>517.0200655508536</v>
+        <v>2150.325450936867</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>823.1945852167225</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="C29" t="n">
-        <v>823.1945852167225</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="D29" t="n">
-        <v>464.928886609972</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036444</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548715</v>
+        <v>2446.157797872834</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548715</v>
+        <v>2446.157797872834</v>
       </c>
       <c r="V29" t="n">
-        <v>2326.16817078785</v>
+        <v>2115.094910529263</v>
       </c>
       <c r="W29" t="n">
-        <v>1973.399515517736</v>
+        <v>2115.094910529263</v>
       </c>
       <c r="X29" t="n">
-        <v>1599.933757256656</v>
+        <v>2115.094910529263</v>
       </c>
       <c r="Y29" t="n">
-        <v>1209.794425280844</v>
+        <v>1724.955578553451</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2644.514302541593</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>2644.514302541593</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>2644.514302541593</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>2496.6012089592</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>2349.71126146129</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>2180.711461199622</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2644.514302541593</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2644.514302541593</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>2644.514302541593</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>2644.514302541593</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>2644.514302541593</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>2644.514302541593</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717208</v>
+        <v>1321.530002831497</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776797</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D32" t="n">
-        <v>819.7159451700461</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E32" t="n">
-        <v>433.9276925718019</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F32" t="n">
-        <v>433.9276925718019</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036443</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036443</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018221</v>
+        <v>2471.73493313251</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018221</v>
+        <v>2471.73493313251</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018221</v>
+        <v>2471.73493313251</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018221</v>
+        <v>2471.73493313251</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757142</v>
+        <v>2098.269174871431</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.54400078133</v>
+        <v>1708.129842895619</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598714</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502498</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064341</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064341</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W34" t="n">
-        <v>438.7118141694735</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="X34" t="n">
-        <v>438.7118141694735</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y34" t="n">
-        <v>217.9192350259434</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1865.381229508781</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C35" t="n">
-        <v>1496.41871256837</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D35" t="n">
-        <v>1138.153013961619</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E35" t="n">
-        <v>752.3647613633748</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F35" t="n">
-        <v>341.3788565737672</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036443</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533131</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733115</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224064</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977173</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548715</v>
+        <v>2676.155172666037</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548715</v>
+        <v>2345.092285322467</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548715</v>
+        <v>2345.092285322467</v>
       </c>
       <c r="X35" t="n">
-        <v>2642.120401548715</v>
+        <v>2345.092285322467</v>
       </c>
       <c r="Y35" t="n">
-        <v>2251.981069572903</v>
+        <v>1954.952953346655</v>
       </c>
     </row>
     <row r="36">
@@ -7005,25 +7007,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>222.8791647482713</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036443</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036443</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036443</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036443</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036443</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036443</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7123,22 +7125,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>512.0527750937034</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>222.8791647482713</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>222.8791647482713</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>222.8791647482713</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>222.8791647482713</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.8791647482713</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.9054987607761</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C38" t="n">
-        <v>53.94298182036443</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D38" t="n">
-        <v>53.94298182036443</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036443</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036443</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036443</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036443</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533141</v>
@@ -7178,7 +7180,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7190,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018221</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2510.703757037383</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2256.941971675474</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>1925.879084331904</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W38" t="n">
-        <v>1573.11042906179</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X38" t="n">
-        <v>1199.64467080071</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y38" t="n">
-        <v>809.505338824898</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="39">
@@ -7242,34 +7244,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977608</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662037</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171277</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018221</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018221</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018221</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018221</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018221</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018221</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018221</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>2407.731920981261</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>2179.742370083243</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>781.1711973675267</v>
+        <v>750.1002187247734</v>
       </c>
       <c r="C41" t="n">
-        <v>412.2086804271149</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="D41" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7427,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U41" t="n">
-        <v>2615.207670282225</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V41" t="n">
-        <v>2284.144782938654</v>
+        <v>1879.608046034821</v>
       </c>
       <c r="W41" t="n">
-        <v>1931.37612766854</v>
+        <v>1526.839390764707</v>
       </c>
       <c r="X41" t="n">
-        <v>1557.91036940746</v>
+        <v>1526.839390764707</v>
       </c>
       <c r="Y41" t="n">
-        <v>1167.771037431648</v>
+        <v>1136.700058788895</v>
       </c>
     </row>
     <row r="42">
@@ -7485,10 +7487,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
         <v>309.190302261463</v>
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7578,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S43" t="n">
-        <v>576.7355737986852</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T43" t="n">
-        <v>576.7355737986852</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U43" t="n">
-        <v>576.7355737986852</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V43" t="n">
-        <v>576.7355737986852</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W43" t="n">
-        <v>576.7355737986852</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="X43" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="Y43" t="n">
-        <v>348.7460229006679</v>
+        <v>149.5382038240417</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>464.928886609972</v>
+        <v>744.3346612638215</v>
       </c>
       <c r="C44" t="n">
-        <v>464.928886609972</v>
+        <v>375.3721443234098</v>
       </c>
       <c r="D44" t="n">
-        <v>464.928886609972</v>
+        <v>375.3721443234098</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>375.3721443234098</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>375.3721443234098</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>375.3721443234098</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
@@ -7676,22 +7678,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W44" t="n">
-        <v>1309.714918859356</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X44" t="n">
-        <v>936.2491605982757</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y44" t="n">
-        <v>546.109828622464</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7746,22 +7748,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.69838933464703</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X46" t="n">
-        <v>500.1394333084169</v>
+        <v>698.6685303810933</v>
       </c>
       <c r="Y46" t="n">
-        <v>279.3468541648867</v>
+        <v>698.6685303810933</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8945,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9009,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747172</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>327.4218609627878</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,7 +9257,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>145.0294169142018</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9495,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>327.4218609627892</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451766</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>327.4218609627892</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720727</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10838,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714818</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,7 +10904,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22547,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.3135933500641</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22565,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,16 +22600,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>67.65429216408535</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22720,7 +22722,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>56.8258083455521</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22756,7 +22758,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>125.6900249618414</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>371.3427523386205</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22838,19 +22840,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>85.69942895698361</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22957,10 +22959,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>56.8258083455521</v>
       </c>
       <c r="I7" t="n">
-        <v>56.82580834555225</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>243.2147107272816</v>
       </c>
       <c r="X8" t="n">
-        <v>271.9409476699461</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23182,10 +23184,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>82.85718120047541</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23194,13 +23196,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>120.50172456543</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,10 +23272,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>195.9833618762623</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>170.102160979652</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047541</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>371.3427523386205</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23510,10 +23512,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481175</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>31.86743971662696</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>178.935651416066</v>
       </c>
       <c r="T16" t="n">
-        <v>56.018376287872</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>162.4224258825817</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23786,19 +23788,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>282.5307978202714</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.80735538553407</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23908,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23947,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>30.69118209778793</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>11.44522155260887</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>93.89174307769318</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24184,16 +24186,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>89.80115265030477</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>172.6218992159328</v>
+        <v>154.24082473931</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24382,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24415,22 +24417,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168084</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>63.37316471551401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24446,19 +24448,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>33.39413243346274</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24497,16 +24499,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>187.8531703731139</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>8.876883110671599</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>3.147709480994223</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24661,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24683,22 +24685,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,19 +24733,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>22.44534271853479</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>14.95955001687861</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24844,22 +24846,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24889,16 +24891,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>172.9266648662218</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24920,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>37.59930637687194</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481175</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>47.76670662561423</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17.49548950841415</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25093,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25129,7 +25131,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053967</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>129.2226540149263</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25208,10 +25210,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>230.440188339626</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25312,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>64.16285195963717</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25363,10 +25365,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>11.11965843648079</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25391,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25409,7 +25411,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>47.41997957426331</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>31.86743971662742</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>63.37316471551443</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25643,7 +25645,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25676,22 +25678,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>170.102160979652</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>160.4748246114859</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>85.19271039829687</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25834,22 +25836,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>62.26606264634739</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>302.3647090711135</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>157.6392181312035</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>123.9289676594881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>45.199959188537</v>
@@ -26086,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>196.5438061019496</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755054.9746107855</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755054.9746107856</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149698</v>
@@ -26320,40 +26322,40 @@
         <v>274694.9795149697</v>
       </c>
       <c r="E2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="F2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>274694.9795149698</v>
-      </c>
-      <c r="G2" t="n">
-        <v>274694.9795149699</v>
       </c>
       <c r="H2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="J2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="K2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="L2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="M2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="N2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="O2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149699</v>
       </c>
     </row>
     <row r="3">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26482,34 +26484,34 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340945</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340945</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340945</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340945</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416360.9053326474</v>
+        <v>-416360.9053326475</v>
       </c>
       <c r="C6" t="n">
         <v>173606.9738818971</v>
@@ -26528,13 +26530,13 @@
         <v>173606.973881897</v>
       </c>
       <c r="E6" t="n">
+        <v>207234.5738818971</v>
+      </c>
+      <c r="F6" t="n">
         <v>207234.573881897</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>207234.5738818971</v>
-      </c>
-      <c r="G6" t="n">
-        <v>207234.5738818972</v>
       </c>
       <c r="H6" t="n">
         <v>207234.573881897</v>
@@ -26543,25 +26545,25 @@
         <v>207234.5738818971</v>
       </c>
       <c r="J6" t="n">
-        <v>30811.35468930411</v>
+        <v>30811.35468930417</v>
       </c>
       <c r="K6" t="n">
         <v>207234.5738818971</v>
       </c>
       <c r="L6" t="n">
-        <v>207234.573881897</v>
+        <v>207234.5738818971</v>
       </c>
       <c r="M6" t="n">
         <v>207234.573881897</v>
       </c>
       <c r="N6" t="n">
-        <v>207234.5738818969</v>
+        <v>207234.5738818971</v>
       </c>
       <c r="O6" t="n">
+        <v>207234.5738818972</v>
+      </c>
+      <c r="P6" t="n">
         <v>207234.5738818971</v>
-      </c>
-      <c r="P6" t="n">
-        <v>207234.5738818969</v>
       </c>
     </row>
   </sheetData>
@@ -26735,37 +26737,37 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="E3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="F3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="G3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
+      <c r="H3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
+      <c r="I3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="E3" t="n">
+      <c r="J3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="F3" t="n">
-        <v>377.7436642170865</v>
-      </c>
-      <c r="G3" t="n">
-        <v>377.7436642170865</v>
-      </c>
-      <c r="H3" t="n">
-        <v>377.7436642170865</v>
-      </c>
-      <c r="I3" t="n">
-        <v>377.7436642170865</v>
-      </c>
-      <c r="J3" t="n">
-        <v>377.7436642170865</v>
-      </c>
       <c r="K3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
         <v>377.7436642170866</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26802,34 +26804,34 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31756,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31987,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479577</v>
@@ -32336,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479577</v>
@@ -32573,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M22" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N22" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N24" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
         <v>155.1528646479577</v>
@@ -32810,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M25" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N25" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M27" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N27" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O27" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
         <v>155.1528646479577</v>
@@ -33047,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M28" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N28" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M30" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N30" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O30" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
         <v>155.1528646479577</v>
@@ -33284,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M31" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N31" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
         <v>155.1528646479577</v>
@@ -33521,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M34" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N34" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713856</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,25 +35886,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>365.2844632307143</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N19" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,25 +36123,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>138.3897561047529</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N22" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36358,25 +36360,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624598</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M25" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N25" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O25" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,25 +36597,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>365.2844632307157</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.811094813734</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M28" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N28" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O28" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36832,25 +36834,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355132</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.811094813734</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M31" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N31" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O31" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,25 +37071,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>365.2844632307157</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.811094813734</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M34" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N34" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O34" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181299</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37385,7 +37387,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37558,7 +37560,7 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116789</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38102,10 +38104,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N45" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>947131.395930696</v>
+        <v>992826.6649842924</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564204</v>
+        <v>189902.9539564203</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.0293783217024</v>
+        <v>27.29967268562843</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>65.27940717001194</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>301.9733049912323</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>92.00803688215797</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>79.0954748395832</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>249.6009712258251</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>196.889762398448</v>
       </c>
       <c r="U9" t="n">
         <v>225.8879277888686</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.63926978364034</v>
+        <v>8.546296656423092</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>80.63410908555676</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>16.49665477297149</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>26.3288200405003</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>231.7173056877563</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -1666,7 +1666,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>220.2472864999509</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>87.82198939889103</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>190.3001368141498</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>340.2280602818606</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>286.764476542478</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>355.5467565582655</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>232.5207772789747</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>4.553842565068744</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>333.9100207324366</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>273.729430492744</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>49.38957925603675</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>65.51651982872605</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>284.3192806430687</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>44.74654572587418</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>4.440065804380656</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>101.7177065691261</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>121.1156257058473</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -2812,7 +2812,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -2854,10 +2854,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>348.1338857353185</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>87.12574707908817</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>150.5540262346244</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>205.844918317446</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>71.6477630005609</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3201,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>140.1425501084459</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>235.5000960026868</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>173.6089207995619</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>264.3862503229323</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>86.88462298447439</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017904</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3508,13 +3508,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>5.791117132838708</v>
       </c>
       <c r="X38" t="n">
-        <v>273.3204596584611</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>85.87170836083652</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>129.0246247964038</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>254.3476487849487</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -3793,22 +3793,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>332.6633767759499</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>190.2713935802975</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>107.1778636154931</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>221.002178698296</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,10 +3994,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>74.07201929003841</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>50.43151777216858</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>116.1430940756187</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1838.661061815299</v>
+        <v>1194.534876920951</v>
       </c>
       <c r="C2" t="n">
-        <v>1469.698544874887</v>
+        <v>825.5723599805394</v>
       </c>
       <c r="D2" t="n">
-        <v>1469.698544874887</v>
+        <v>467.3066613737889</v>
       </c>
       <c r="E2" t="n">
-        <v>1083.910292276643</v>
+        <v>81.51840877554469</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.661061815299</v>
+        <v>1581.134716985073</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,16 +4412,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4433,19 +4433,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4515,22 +4515,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1004.183115213127</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="C5" t="n">
-        <v>1004.183115213127</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="D5" t="n">
-        <v>1004.183115213127</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="E5" t="n">
-        <v>618.3948626148824</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="F5" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1695.806495672433</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1695.806495672433</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1390.782955277248</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,19 +4649,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4670,19 +4670,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117053</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F7" t="n">
-        <v>283.209303713795</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G7" t="n">
-        <v>283.209303713795</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1394.624369323446</v>
+        <v>2075.803581887074</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>1706.841064946662</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1348.575366339911</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>962.7871137416671</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>551.8012089520596</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>133.8374008502465</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2171.363541363379</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2171.363541363379</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W8" t="n">
-        <v>2171.363541363379</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X8" t="n">
-        <v>2171.363541363379</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="Y8" t="n">
-        <v>1781.224209387568</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,13 +4880,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4901,7 +4901,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4913,13 +4913,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2035.589960916693</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="C11" t="n">
-        <v>2035.589960916693</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="D11" t="n">
-        <v>1677.324262309942</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E11" t="n">
-        <v>1291.536009711698</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F11" t="n">
-        <v>880.5501049220907</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>462.5862968202775</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>135.3915768562804</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
         <v>881.2824271224075</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V11" t="n">
-        <v>2388.358616186807</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W11" t="n">
-        <v>2035.589960916693</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X11" t="n">
-        <v>2035.589960916693</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y11" t="n">
-        <v>2035.589960916693</v>
+        <v>1369.426717132083</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5126,43 +5126,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>80.53774953804151</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>80.53774953804151</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5229,22 +5229,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1116.950579244872</v>
+        <v>994.3352828674997</v>
       </c>
       <c r="C14" t="n">
-        <v>1116.950579244872</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="D14" t="n">
-        <v>882.8926947117852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5284,13 +5284,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>1893.689751284806</v>
+        <v>1771.074454907433</v>
       </c>
       <c r="W14" t="n">
-        <v>1893.689751284806</v>
+        <v>1771.074454907433</v>
       </c>
       <c r="X14" t="n">
-        <v>1893.689751284806</v>
+        <v>1771.074454907433</v>
       </c>
       <c r="Y14" t="n">
-        <v>1503.550419308994</v>
+        <v>1380.935122931621</v>
       </c>
     </row>
     <row r="15">
@@ -5339,10 +5339,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
         <v>359.3385232961342</v>
@@ -5351,31 +5351,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>290.5651556036576</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C16" t="n">
-        <v>290.5651556036576</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D16" t="n">
-        <v>290.5651556036576</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E16" t="n">
-        <v>142.6520620212645</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F16" t="n">
-        <v>142.6520620212645</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5460,28 +5460,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>579.9823256406182</v>
+        <v>535.9066237881011</v>
       </c>
       <c r="U16" t="n">
-        <v>579.9823256406182</v>
+        <v>535.9066237881011</v>
       </c>
       <c r="V16" t="n">
-        <v>579.9823256406182</v>
+        <v>535.9066237881011</v>
       </c>
       <c r="W16" t="n">
-        <v>290.5651556036576</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="X16" t="n">
-        <v>290.5651556036576</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="Y16" t="n">
-        <v>290.5651556036576</v>
+        <v>246.4894537511405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1241.158393318536</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C17" t="n">
-        <v>1241.158393318536</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D17" t="n">
-        <v>882.8926947117851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548715</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V17" t="n">
-        <v>2311.057514205144</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W17" t="n">
-        <v>1958.28885893503</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X17" t="n">
-        <v>1584.82310067395</v>
+        <v>2153.726218239669</v>
       </c>
       <c r="Y17" t="n">
-        <v>1584.82310067395</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="18">
@@ -5570,73 +5570,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>535.9356573576496</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036444</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1937.08349269302</v>
+        <v>1503.550419308994</v>
       </c>
       <c r="C20" t="n">
-        <v>1568.120975752609</v>
+        <v>1503.550419308994</v>
       </c>
       <c r="D20" t="n">
-        <v>1209.855277145858</v>
+        <v>1503.550419308994</v>
       </c>
       <c r="E20" t="n">
-        <v>824.067024547614</v>
+        <v>1117.762166710749</v>
       </c>
       <c r="F20" t="n">
-        <v>413.0811197580064</v>
+        <v>706.7762619211419</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>288.8124538193288</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036444</v>
@@ -5755,10 +5755,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5782,22 +5782,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757142</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="Y20" t="n">
-        <v>2323.683332757142</v>
+        <v>1503.550419308994</v>
       </c>
     </row>
     <row r="21">
@@ -5937,19 +5937,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>286.5323736931987</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U22" t="n">
-        <v>281.9325327183818</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V22" t="n">
-        <v>281.9325327183818</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W22" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X22" t="n">
         <v>53.94298182036444</v>
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1167.455337753612</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C23" t="n">
-        <v>1167.455337753612</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="D23" t="n">
-        <v>809.1896391468611</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E23" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F23" t="n">
         <v>471.9067899221776</v>
@@ -5992,10 +5992,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.752638628376</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V23" t="n">
-        <v>1893.689751284805</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W23" t="n">
-        <v>1540.921096014691</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X23" t="n">
-        <v>1167.455337753612</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="Y23" t="n">
-        <v>1167.455337753612</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>272.8312459770186</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="C25" t="n">
-        <v>222.942782082032</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="D25" t="n">
-        <v>222.942782082032</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="E25" t="n">
-        <v>222.942782082032</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="F25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036444</v>
@@ -6168,31 +6168,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T25" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U25" t="n">
-        <v>500.820796875036</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V25" t="n">
-        <v>500.820796875036</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W25" t="n">
-        <v>500.820796875036</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="X25" t="n">
-        <v>272.8312459770186</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="Y25" t="n">
-        <v>272.8312459770186</v>
+        <v>120.1212846776635</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1268.680947310029</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.680947310029</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.680947310029</v>
+        <v>1170.083887280541</v>
       </c>
       <c r="E26" t="n">
         <v>882.8926947117851</v>
@@ -6229,10 +6229,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U26" t="n">
-        <v>2443.387305656313</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V26" t="n">
-        <v>2398.188774620077</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W26" t="n">
-        <v>2045.420119349963</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X26" t="n">
-        <v>2045.420119349963</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y26" t="n">
-        <v>1655.280787374151</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="27">
@@ -6305,16 +6305,16 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>222.942782082032</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C28" t="n">
-        <v>222.942782082032</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D28" t="n">
-        <v>222.942782082032</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E28" t="n">
         <v>222.942782082032</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>625.3838260558018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>625.3838260558018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>625.3838260558018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>625.3838260558018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>404.5912469122717</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1310.833184497836</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C29" t="n">
-        <v>1310.833184497836</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D29" t="n">
-        <v>952.5674858910851</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E29" t="n">
-        <v>952.5674858910851</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F29" t="n">
         <v>952.5674858910851</v>
@@ -6460,55 +6460,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834949</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.546461473041</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V29" t="n">
-        <v>1662.483574129471</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W29" t="n">
-        <v>1662.483574129471</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X29" t="n">
-        <v>1310.833184497836</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y29" t="n">
-        <v>1310.833184497836</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="30">
@@ -6533,25 +6533,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>350.9495687306105</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C31" t="n">
-        <v>350.9495687306105</v>
+        <v>500.820796875036</v>
       </c>
       <c r="D31" t="n">
-        <v>200.8329293182748</v>
+        <v>500.820796875036</v>
       </c>
       <c r="E31" t="n">
-        <v>200.8329293182748</v>
+        <v>352.9077032926429</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036447</v>
+        <v>206.0177557947325</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064347</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610026</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V31" t="n">
-        <v>438.9553738610026</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W31" t="n">
-        <v>438.9553738610026</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X31" t="n">
-        <v>438.9553738610026</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y31" t="n">
-        <v>438.9553738610026</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1320.425425970681</v>
+        <v>1494.518401093284</v>
       </c>
       <c r="C32" t="n">
-        <v>951.4629090302694</v>
+        <v>1494.518401093284</v>
       </c>
       <c r="D32" t="n">
-        <v>593.197210423519</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E32" t="n">
-        <v>207.4089578252748</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F32" t="n">
-        <v>207.4089578252748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
         <v>207.4089578252748</v>
@@ -6697,55 +6697,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T32" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U32" t="n">
-        <v>2212.181128500978</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V32" t="n">
-        <v>1881.118241157407</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W32" t="n">
-        <v>1528.349585887293</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X32" t="n">
-        <v>1528.349585887293</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y32" t="n">
-        <v>1528.349585887293</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="33">
@@ -6770,25 +6770,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>500.1394333084173</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C34" t="n">
-        <v>500.1394333084173</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D34" t="n">
-        <v>500.1394333084173</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E34" t="n">
-        <v>500.1394333084173</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>353.2494858105069</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064347</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064347</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X34" t="n">
-        <v>500.1394333084173</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y34" t="n">
-        <v>500.1394333084173</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1696.62143709608</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C35" t="n">
-        <v>1696.62143709608</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D35" t="n">
-        <v>1338.355738489329</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E35" t="n">
-        <v>952.5674858910851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.752638628378</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V35" t="n">
-        <v>2224.752638628378</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W35" t="n">
-        <v>1871.983983358263</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X35" t="n">
-        <v>1871.983983358263</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y35" t="n">
-        <v>1871.983983358263</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="36">
@@ -7007,22 +7007,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
         <v>1313.210296315296</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036447</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036447</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064347</v>
+        <v>640.3667387675712</v>
       </c>
       <c r="U37" t="n">
-        <v>598.044640063212</v>
+        <v>640.3667387675712</v>
       </c>
       <c r="V37" t="n">
-        <v>343.3601518573251</v>
+        <v>640.3667387675712</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036447</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036447</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036447</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>840.8693068625894</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C38" t="n">
-        <v>471.9067899221776</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D38" t="n">
-        <v>471.9067899221776</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990286</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.752638628378</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V38" t="n">
-        <v>1893.689751284807</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W38" t="n">
-        <v>1893.689751284807</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="X38" t="n">
-        <v>1617.608478902523</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y38" t="n">
-        <v>1227.469146926711</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="39">
@@ -7244,25 +7244,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036447</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036447</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036447</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036447</v>
+        <v>140.6820811747448</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036447</v>
+        <v>140.6820811747448</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610026</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>184.2708856551157</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036447</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036447</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036447</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1525.597764264523</v>
+        <v>1226.657559460833</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F41" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332394</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2302.336936304457</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U41" t="n">
-        <v>2302.336936304457</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V41" t="n">
-        <v>2302.336936304457</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W41" t="n">
-        <v>2302.336936304457</v>
+        <v>1600.123317721913</v>
       </c>
       <c r="X41" t="n">
-        <v>2302.336936304457</v>
+        <v>1226.657559460833</v>
       </c>
       <c r="Y41" t="n">
-        <v>1912.197604328645</v>
+        <v>1226.657559460833</v>
       </c>
     </row>
     <row r="42">
@@ -7487,16 +7487,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>789.063382757265</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
         <v>1313.210296315296</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036448</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036448</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036448</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036448</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036448</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750366</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036448</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036448</v>
+        <v>619.8685159079563</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036448</v>
+        <v>391.878965009939</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036448</v>
+        <v>391.878965009939</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1670.695888779116</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C44" t="n">
-        <v>1670.695888779116</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D44" t="n">
-        <v>1670.695888779116</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>1284.907636180872</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>873.9217313912641</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>455.9579232894509</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>128.7632033254538</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186808</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2057.295728843238</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2057.295728843238</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>2057.295728843238</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>2057.295728843238</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>201.8560754027576</v>
+        <v>104.883908862959</v>
       </c>
       <c r="C46" t="n">
-        <v>201.8560754027576</v>
+        <v>104.883908862959</v>
       </c>
       <c r="D46" t="n">
-        <v>201.8560754027576</v>
+        <v>104.883908862959</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036448</v>
+        <v>104.883908862959</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036448</v>
+        <v>104.883908862959</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064347</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T46" t="n">
-        <v>500.8207968750364</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U46" t="n">
-        <v>500.8207968750364</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V46" t="n">
-        <v>500.8207968750364</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W46" t="n">
-        <v>500.8207968750364</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X46" t="n">
-        <v>383.5045402329973</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y46" t="n">
-        <v>383.5045402329973</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992665</v>
+        <v>275.044284299266</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050811</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>435.923890002883</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>435.9238900028826</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>435.9238900028826</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451757</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451757</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451747</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451757</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.846667420009</v>
+        <v>379.576373056083</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22725,10 +22725,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>83.12091415361559</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>62.69861478456102</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,16 +22792,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>341.5966385716995</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>84.26463366482125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22947,22 +22947,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>64.16285195963718</v>
+        <v>61.53161905815483</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -22998,13 +22998,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>244.8272979247739</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>1.623196282464193</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23153,7 +23153,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23235,16 +23235,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>157.4983735401877</v>
+        <v>243.5913466674049</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>71.29720715930449</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>369.7412838830821</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>129.8420688012949</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
@@ -23469,16 +23469,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>96.25160475629417</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>122.9657359329267</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>107.504971970184</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23661,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>79.48781286015988</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -23676,7 +23676,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>34.73496864393451</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42.50578138162001</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23788,19 +23788,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>82.96662413599103</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>51.79469286292885</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23940,19 +23940,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>21.87414536972213</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>58.23741346252945</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>91.40199548538246</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24022,22 +24022,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24177,22 +24177,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>281.728031676909</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>96.25160475629423</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,16 +24208,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>48.02034933982515</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>96.00167018572506</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>117.8572418425911</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>79.9045281942052</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24417,19 +24417,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>97.6110894291931</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>283.0057127442607</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>141.9938968421885</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24657,7 +24657,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>184.5641676728517</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24685,13 +24685,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>233.5674159148356</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>21.5972149431505</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.70623310284913</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>16.75577602442655</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>176.8889233460346</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>283.0352786201221</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25089,16 +25089,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>27.16725215060498</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25134,13 +25134,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>16.63754732114123</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>209.1249208639187</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>105.3448503555368</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,22 +25356,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>138.1504824736099</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401873</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25396,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>343.4498515845743</v>
       </c>
       <c r="X38" t="n">
-        <v>96.41064102000797</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25554,25 +25554,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>81.43809389821439</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25605,13 +25605,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>157.4983735401872</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>110.9252429860588</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481162</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>16.57759194146308</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853696</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,28 +25830,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491425</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>96.01048066168028</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>179.3451347210978</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25870,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>133.680862922387</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>77.85929695482278</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>116.8782844868823</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,13 +26067,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>109.5665613134185</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755054.974610786</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149699</v>
       </c>
       <c r="D2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="E2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="F2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="G2" t="n">
         <v>274694.9795149697</v>
@@ -26346,16 +26346,16 @@
         <v>274694.9795149699</v>
       </c>
       <c r="M2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="N2" t="n">
         <v>274694.9795149698</v>
       </c>
-      <c r="N2" t="n">
-        <v>274694.9795149699</v>
-      </c>
       <c r="O2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
     </row>
     <row r="3">
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>2.069128868242842e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26496,22 +26496,22 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-422429.3190784664</v>
+        <v>-416967.7467072294</v>
       </c>
       <c r="C6" t="n">
-        <v>167538.5601360779</v>
+        <v>173000.1325073152</v>
       </c>
       <c r="D6" t="n">
-        <v>167538.5601360779</v>
+        <v>173000.1325073151</v>
       </c>
       <c r="E6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.7325073151</v>
       </c>
       <c r="F6" t="n">
-        <v>201166.1601360779</v>
+        <v>206627.7325073151</v>
       </c>
       <c r="G6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.7325073151</v>
       </c>
       <c r="H6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.7325073151</v>
       </c>
       <c r="I6" t="n">
-        <v>201166.1601360779</v>
+        <v>206627.7325073152</v>
       </c>
       <c r="J6" t="n">
-        <v>24742.94094348492</v>
+        <v>30204.51331472224</v>
       </c>
       <c r="K6" t="n">
-        <v>201166.1601360776</v>
+        <v>206627.7325073152</v>
       </c>
       <c r="L6" t="n">
-        <v>201166.1601360779</v>
+        <v>206627.7325073152</v>
       </c>
       <c r="M6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.7325073151</v>
       </c>
       <c r="N6" t="n">
-        <v>201166.1601360779</v>
+        <v>206627.7325073152</v>
       </c>
       <c r="O6" t="n">
-        <v>201166.1601360779</v>
+        <v>206627.7325073152</v>
       </c>
       <c r="P6" t="n">
-        <v>201166.1601360778</v>
+        <v>206627.7325073151</v>
       </c>
     </row>
   </sheetData>
@@ -26764,22 +26764,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26795,16 +26795,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545555</v>
@@ -26816,22 +26816,22 @@
         <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M30" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N30" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O30" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33353,28 +33353,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N31" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33590,28 +33590,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N34" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N36" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33827,28 +33827,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N37" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N39" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34064,28 +34064,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N40" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M43" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N43" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,46 +34362,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34538,28 +34538,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35494,7 +35494,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N17" t="n">
         <v>478.8956552492236</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245897</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245897</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>515.9012490932195</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -36992,10 +36992,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M31" t="n">
         <v>146.3614835535656</v>
@@ -37004,10 +37004,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O31" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>515.9012490932195</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37229,10 +37229,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M34" t="n">
         <v>146.3614835535656</v>
@@ -37241,10 +37241,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O34" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355125</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37466,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M37" t="n">
         <v>146.3614835535656</v>
@@ -37478,10 +37478,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O37" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262939</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M40" t="n">
         <v>146.3614835535656</v>
@@ -37715,10 +37715,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770697</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355116</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M43" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N43" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M46" t="n">
         <v>146.3614835535656</v>
@@ -38189,10 +38189,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
